--- a/$SNOW.xlsx
+++ b/$SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1525A01-20FA-4FAE-A1C2-E1BDB7679335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1531AC-E95C-460F-B161-0EFE8936F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{07A47022-C50C-40F5-94BD-B152A09AB513}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07A47022-C50C-40F5-94BD-B152A09AB513}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -405,7 +414,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0\x"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -591,21 +600,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -613,24 +612,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,14 +638,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -668,25 +661,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,10 +680,37 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1087,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3745FC-C958-4377-A508-4BB5D958D24C}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1112,43 +1119,43 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
       <c r="S5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>130.24</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
+      <c r="D6" s="5"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
       <c r="S6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1157,26 +1164,26 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <f>+'Financial Model'!L19</f>
         <v>334.07100000000003</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="5" t="str">
         <f>+$C$29</f>
         <v>Q224</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
       <c r="S7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1185,23 +1192,23 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <f>C6*C7</f>
         <v>43509.407040000006</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
       <c r="S8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1210,431 +1217,435 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <f>+'Financial Model'!L70</f>
         <v>3927.913</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" ref="D9:D11" si="0">+$C$29</f>
         <v>Q224</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="21">
         <v>45323</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <f>+'Financial Model'!L71</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Q224</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <f>C9-C10</f>
         <v>3927.913</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Q224</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <f>+C8-C11</f>
         <v>39581.494040000005</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="19">
+      <c r="D12" s="6"/>
+      <c r="G12" s="13">
         <v>2024</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="G13" s="19"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="G14" s="19"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
+      <c r="D16" s="41"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G21" s="19"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
+      <c r="D23" s="41"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="40">
         <v>2012</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
+      <c r="D24" s="41"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="40">
         <v>2020</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
+      <c r="D25" s="41"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="G26" s="27">
+      <c r="B26" s="13"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="G26" s="21">
         <v>44317</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="49">
         <f>+'Financial Model'!L30</f>
         <v>7630</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="28" t="s">
+      <c r="D27" s="41"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="33">
         <v>45533</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="42">
         <f>+C6/'Financial Model'!L68</f>
         <v>10.51564511498003</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="42">
         <f>+C8/SUM('Financial Model'!I6:L6)</f>
         <v>13.569715649610261</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="42">
         <f>+C6/'Financial Model'!L88</f>
         <v>48.841973732067096</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="40">
         <v>37</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C37:D37"/>
@@ -1651,10 +1662,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1666,11 +1673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D05485-1DCA-42FF-AB95-1900CC5BD467}">
   <dimension ref="B1:Z90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1680,1162 +1687,1174 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="2:26" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="E2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="26">
         <v>45046</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="26">
         <v>45138</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="26">
         <v>45230</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="26">
         <f>+X2</f>
         <v>45322</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="26">
         <v>45412</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="26">
         <v>45504</v>
       </c>
-      <c r="V2" s="32">
+      <c r="M2" s="26">
+        <v>45596</v>
+      </c>
+      <c r="V2" s="26">
         <v>44227</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="26">
         <v>44957</v>
       </c>
-      <c r="X2" s="32">
+      <c r="X2" s="26">
         <v>45322</v>
       </c>
     </row>
-    <row r="3" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="I3" s="31">
+    <row r="3" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15"/>
+      <c r="I3" s="25">
         <v>37226</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="25">
         <v>46082</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="25">
         <v>11444</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="25">
         <v>47331</v>
       </c>
-      <c r="X3" s="31">
+      <c r="M3" s="25">
+        <v>44136</v>
+      </c>
+      <c r="X3" s="25">
         <v>46082</v>
       </c>
     </row>
-    <row r="4" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="2:26" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="38">
         <v>522.75199999999995</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="38">
         <v>590.072</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="38">
         <v>640.20899999999995</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="38">
         <v>698.47799999999995</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="38">
         <f>+X4-SUM(G4:I4)</f>
         <v>738.09000000000015</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="38">
         <v>789.58699999999999</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="38">
         <v>829.25</v>
       </c>
-      <c r="V4" s="49">
+      <c r="M4" s="38">
+        <v>829.25</v>
+      </c>
+      <c r="V4" s="38">
         <v>1140.4690000000001</v>
       </c>
-      <c r="W4" s="49">
+      <c r="W4" s="38">
         <v>1938.7829999999999</v>
       </c>
-      <c r="X4" s="49">
+      <c r="X4" s="38">
         <v>2666.8490000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:26" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:26" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="38">
         <v>34.276000000000003</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="38">
         <v>33.527000000000001</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="38">
         <v>33.808999999999997</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="38">
         <v>35.695</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="38">
         <f>+X5-SUM(G5:I5)</f>
         <v>36.60899999999998</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="38">
         <v>39.122</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="38">
         <v>39.53</v>
       </c>
-      <c r="V5" s="49">
+      <c r="M5" s="38">
+        <v>39.573</v>
+      </c>
+      <c r="V5" s="38">
         <v>78.858000000000004</v>
       </c>
-      <c r="W5" s="49">
+      <c r="W5" s="38">
         <v>126.876</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="38">
         <v>139.63999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="2:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="27">
         <f t="shared" ref="C6:J6" si="0">+C4+C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>557.02799999999991</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="27">
         <f t="shared" si="0"/>
         <v>623.59900000000005</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>674.01799999999992</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="27">
         <f t="shared" si="0"/>
         <v>734.173</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="27">
         <f t="shared" si="0"/>
         <v>774.69900000000007</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="27">
         <f>+K4+K5</f>
         <v>828.70899999999995</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="27">
         <f>+L4+L5</f>
         <v>868.78</v>
       </c>
-      <c r="M6" s="33">
-        <f>+L6*(1+M22)</f>
-        <v>920.90679999999998</v>
-      </c>
-      <c r="N6" s="33">
+      <c r="M6" s="27">
+        <f>+M4+M5</f>
+        <v>868.82299999999998</v>
+      </c>
+      <c r="N6" s="27">
         <f>+M6*(1+N22)</f>
-        <v>966.95213999999999</v>
-      </c>
-      <c r="S6" s="33">
+        <v>912.26414999999997</v>
+      </c>
+      <c r="S6" s="27">
         <f t="shared" ref="S6:Z6" si="1">+S4+S5</f>
         <v>0</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="27">
         <f t="shared" si="1"/>
         <v>1219.327</v>
       </c>
-      <c r="W6" s="33">
+      <c r="W6" s="27">
         <f t="shared" si="1"/>
         <v>2065.6590000000001</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="27">
         <f t="shared" si="1"/>
         <v>2806.489</v>
       </c>
-      <c r="Y6" s="33">
+      <c r="Y6" s="27">
         <f>+SUM(K6:N6)</f>
-        <v>3585.3479400000001</v>
-      </c>
-      <c r="Z6" s="33">
+        <v>3478.5761499999999</v>
+      </c>
+      <c r="Z6" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="7">
         <v>190.721</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="7">
         <v>209.41399999999999</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="7">
         <v>218.392</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="7">
         <v>228.94800000000001</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="38">
         <f>+X7-SUM(G7:I7)</f>
         <v>241.80399999999997</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="7">
         <v>272.517</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="7">
         <v>288.07799999999997</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="7">
         <v>458.43299999999999</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="7">
         <v>717.54</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="7">
         <v>898.55799999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="2:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="27">
         <f t="shared" ref="C8" si="2">+C6-C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="27">
         <f t="shared" ref="D8" si="3">+D6-D7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="27">
         <f t="shared" ref="E8" si="4">+E6-E7</f>
         <v>366.3069999999999</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="27">
         <f t="shared" ref="F8" si="5">+F6-F7</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="27">
         <f t="shared" ref="G8" si="6">+G6-G7</f>
         <v>414.18500000000006</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="27">
         <f t="shared" ref="H8" si="7">+H6-H7</f>
         <v>455.62599999999992</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="27">
         <f t="shared" ref="I8" si="8">+I6-I7</f>
         <v>505.22500000000002</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="27">
         <f t="shared" ref="J8" si="9">+J6-J7</f>
         <v>532.8950000000001</v>
       </c>
-      <c r="K8" s="33">
-        <f t="shared" ref="G8:K8" si="10">+K6-K7</f>
+      <c r="K8" s="27">
+        <f t="shared" ref="K8" si="10">+K6-K7</f>
         <v>556.19200000000001</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="27">
         <f>+L6-L7</f>
         <v>580.702</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="27">
         <f t="shared" ref="S8:Z8" si="11">+S6-S7</f>
         <v>0</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="27">
         <f t="shared" si="11"/>
         <v>760.89400000000001</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="27">
         <f t="shared" si="11"/>
         <v>1348.1190000000001</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="27">
         <f t="shared" si="11"/>
         <v>1907.931</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="27">
         <f t="shared" si="11"/>
-        <v>3585.3479400000001</v>
-      </c>
-      <c r="Z8" s="33">
+        <v>3478.5761499999999</v>
+      </c>
+      <c r="Z8" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="7">
         <v>284.47699999999998</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="7">
         <v>331.55799999999999</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="7">
         <v>343.28800000000001</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="7">
         <v>355.07900000000001</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="38">
         <f t="shared" ref="J9:J11" si="12">+X9-SUM(G9:I9)</f>
         <v>361.82200000000012</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="7">
         <v>400.822</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="7">
         <v>400.625</v>
       </c>
-      <c r="V9" s="34">
+      <c r="V9" s="7">
         <v>743.96500000000003</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="7">
         <v>1106.5070000000001</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="7">
         <v>1391.7470000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="7">
         <v>211.387</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="7">
         <v>277.41199999999998</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="7">
         <v>313.99599999999998</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="7">
         <v>332.065</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="38">
         <f t="shared" si="12"/>
         <v>364.47600000000011</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="7">
         <v>410.79399999999998</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="7">
         <v>437.66</v>
       </c>
-      <c r="V10" s="34">
+      <c r="V10" s="7">
         <v>466.93200000000002</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="7">
         <v>788.05799999999999</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10" s="7">
         <v>1287.9490000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="7">
         <v>76.462000000000003</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="7">
         <v>78.453000000000003</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="7">
         <v>83.748999999999995</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="7">
         <v>78.703999999999994</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="38">
         <f t="shared" si="12"/>
         <v>82.101999999999975</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="7">
         <v>93.147999999999996</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="7">
         <v>97.763000000000005</v>
       </c>
-      <c r="V11" s="34">
+      <c r="V11" s="7">
         <v>265.03300000000002</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="7">
         <v>295.82100000000003</v>
       </c>
-      <c r="X11" s="34">
+      <c r="X11" s="7">
         <v>323.00799999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="27">
         <f t="shared" ref="C12" si="13">+C8-SUM(C9:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="27">
         <f t="shared" ref="D12" si="14">+D8-SUM(D9:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="27">
         <f t="shared" ref="E12" si="15">+E8-SUM(E9:E11)</f>
         <v>-206.01900000000012</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="27">
         <f t="shared" ref="F12" si="16">+F8-SUM(F9:F11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="27">
         <f t="shared" ref="G12" si="17">+G8-SUM(G9:G11)</f>
         <v>-273.23799999999994</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="27">
         <f t="shared" ref="H12" si="18">+H8-SUM(H9:H11)</f>
         <v>-285.4070000000001</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="27">
         <f t="shared" ref="I12" si="19">+I8-SUM(I9:I11)</f>
         <v>-260.62299999999993</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="27">
         <f t="shared" ref="J12" si="20">+J8-SUM(J9:J11)</f>
         <v>-275.50500000000011</v>
       </c>
-      <c r="K12" s="33">
-        <f t="shared" ref="G12:K12" si="21">+K8-SUM(K9:K11)</f>
+      <c r="K12" s="27">
+        <f t="shared" ref="K12" si="21">+K8-SUM(K9:K11)</f>
         <v>-348.572</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="27">
         <f>+L8-SUM(L9:L11)</f>
         <v>-355.34600000000012</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="27">
         <f t="shared" ref="S12:Z12" si="22">+S8-SUM(S9:S11)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="27">
         <f t="shared" si="22"/>
         <v>-715.03599999999983</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="27">
         <f t="shared" si="22"/>
         <v>-842.26699999999983</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="27">
         <f t="shared" si="22"/>
         <v>-1094.7729999999997</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="27">
         <f t="shared" si="22"/>
-        <v>3585.3479400000001</v>
-      </c>
-      <c r="Z12" s="33">
+        <v>3478.5761499999999</v>
+      </c>
+      <c r="Z12" s="27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="7">
         <v>21.856999999999999</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="7">
         <v>43.131</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="7">
         <v>50.28</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="7">
         <v>53.491</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="38">
         <f t="shared" ref="J13:J14" si="23">+X13-SUM(G13:I13)</f>
         <v>53.761000000000024</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="7">
         <v>54.779000000000003</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="7">
         <v>49.265000000000001</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="7">
         <v>9.1289999999999996</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="7">
         <v>73.838999999999999</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="7">
         <v>200.66300000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="7">
         <v>-13.271000000000001</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="7">
         <v>-2.5619999999999998</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="7">
         <v>4.0860000000000003</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="7">
         <v>-4.17</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="38">
         <f t="shared" si="23"/>
         <v>47.533000000000001</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="7">
         <v>-21.302</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="7">
         <v>-7.9459999999999997</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="7">
         <v>28.946999999999999</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="7">
         <v>-47.564999999999998</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14" s="7">
         <v>44.887</v>
       </c>
     </row>
-    <row r="15" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="7">
         <f t="shared" ref="C15" si="24">+C12+C13+C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="7">
         <f t="shared" ref="D15" si="25">+D12+D13+D14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="7">
         <f t="shared" ref="E15" si="26">+E12+E13+E14</f>
         <v>-197.43300000000011</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="7">
         <f t="shared" ref="F15" si="27">+F12+F13+F14</f>
         <v>0</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="7">
         <f t="shared" ref="G15" si="28">+G12+G13+G14</f>
         <v>-232.66899999999995</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="7">
         <f t="shared" ref="H15" si="29">+H12+H13+H14</f>
         <v>-231.04100000000008</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="7">
         <f t="shared" ref="I15" si="30">+I12+I13+I14</f>
         <v>-211.30199999999994</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="7">
         <f t="shared" ref="J15" si="31">+J12+J13+J14</f>
         <v>-174.21100000000007</v>
       </c>
-      <c r="K15" s="34">
-        <f t="shared" ref="G15:K15" si="32">+K12+K13+K14</f>
+      <c r="K15" s="7">
+        <f t="shared" ref="K15" si="32">+K12+K13+K14</f>
         <v>-315.09500000000003</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="7">
         <f>+L12+L13+L14</f>
         <v>-314.02700000000016</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="7">
         <f t="shared" ref="S15:Z15" si="33">+S12+S13+S14</f>
         <v>0</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="7">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="7">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="7">
         <f t="shared" si="33"/>
         <v>-676.95999999999981</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="7">
         <f t="shared" si="33"/>
         <v>-815.99299999999994</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="7">
         <f t="shared" si="33"/>
         <v>-849.22299999999973</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="7">
         <f t="shared" si="33"/>
-        <v>3585.3479400000001</v>
-      </c>
-      <c r="Z15" s="34">
+        <v>3478.5761499999999</v>
+      </c>
+      <c r="Z15" s="7">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="7">
         <v>4.0090000000000003</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="7">
         <v>-6.6050000000000004</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="7">
         <v>-3.7210000000000001</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="7">
         <v>3.3919999999999999</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="38">
         <f>+X16-SUM(G16:I16)</f>
         <v>-4.2989999999999995</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="7">
         <v>2.7210000000000001</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="7">
         <v>3.786</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="7">
         <v>2.988</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="7">
         <v>-18.466999999999999</v>
       </c>
-      <c r="X16" s="34">
+      <c r="X16" s="7">
         <v>-11.233000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="2:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="27">
         <f t="shared" ref="C17" si="34">+C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="27">
         <f t="shared" ref="D17" si="35">+D15-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="27">
         <f t="shared" ref="E17" si="36">+E15-E16</f>
         <v>-201.44200000000012</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="27">
         <f t="shared" ref="F17" si="37">+F15-F16</f>
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="27">
         <f t="shared" ref="G17" si="38">+G15-G16</f>
         <v>-226.06399999999996</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="27">
         <f t="shared" ref="H17" si="39">+H15-H16</f>
         <v>-227.32000000000008</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="27">
         <f t="shared" ref="I17" si="40">+I15-I16</f>
         <v>-214.69399999999993</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="27">
         <f t="shared" ref="J17" si="41">+J15-J16</f>
         <v>-169.91200000000006</v>
       </c>
-      <c r="K17" s="33">
-        <f t="shared" ref="G17:K17" si="42">+K15-K16</f>
+      <c r="K17" s="27">
+        <f t="shared" ref="K17" si="42">+K15-K16</f>
         <v>-317.81600000000003</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="27">
         <f>+L15-L16</f>
         <v>-317.81300000000016</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="27">
         <f t="shared" ref="S17:Z17" si="43">+S15-S16</f>
         <v>0</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="27">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="27">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="27">
         <f t="shared" si="43"/>
         <v>-679.94799999999987</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="27">
         <f t="shared" si="43"/>
         <v>-797.52599999999995</v>
       </c>
-      <c r="X17" s="33">
+      <c r="X17" s="27">
         <f t="shared" si="43"/>
         <v>-837.98999999999978</v>
       </c>
-      <c r="Y17" s="33">
+      <c r="Y17" s="27">
         <f t="shared" si="43"/>
-        <v>3585.3479400000001</v>
-      </c>
-      <c r="Z17" s="33">
+        <v>3478.5761499999999</v>
+      </c>
+      <c r="Z17" s="27">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:26" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:26" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="29">
         <f>+E17/E19</f>
         <v>-0.62924078904212322</v>
       </c>
-      <c r="G18" s="36">
-        <f>+G17/G19</f>
+      <c r="G18" s="29">
+        <f t="shared" ref="G18:L18" si="44">+G17/G19</f>
         <v>-0.69739046202920185</v>
       </c>
-      <c r="H18" s="36">
-        <f>+H17/H19</f>
+      <c r="H18" s="29">
+        <f t="shared" si="44"/>
         <v>-0.69445674920188827</v>
       </c>
-      <c r="I18" s="36">
-        <f>+I17/I19</f>
+      <c r="I18" s="29">
+        <f t="shared" si="44"/>
         <v>-0.65195104916340207</v>
       </c>
-      <c r="J18" s="36">
-        <f>+J17/J19</f>
+      <c r="J18" s="29">
+        <f t="shared" si="44"/>
         <v>-0.5180228109060645</v>
       </c>
-      <c r="K18" s="36">
-        <f>+K17/K19</f>
+      <c r="K18" s="29">
+        <f t="shared" si="44"/>
         <v>-0.9527315458775002</v>
       </c>
-      <c r="L18" s="36">
-        <f>+L17/L19</f>
+      <c r="L18" s="29">
+        <f t="shared" si="44"/>
         <v>-0.95133369852516425</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="29">
         <f>+V17/V19</f>
         <v>-2.2644326995767177</v>
       </c>
-      <c r="W18" s="36">
+      <c r="W18" s="29">
         <f>+W17/W19</f>
         <v>-2.502199353684937</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X18" s="29">
         <f>+X17/X19</f>
         <v>-2.5548397718299634</v>
       </c>
     </row>
-    <row r="19" spans="2:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="7">
         <v>320.13499999999999</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="7">
         <v>324.15699999999998</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="7">
         <v>327.33499999999998</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="7">
         <v>329.31</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="7">
         <f>+X19</f>
         <v>328.00099999999998</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="7">
         <v>333.584</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="7">
         <v>334.07100000000003</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="7">
         <v>300.27300000000002</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="7">
         <v>318.73</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="7">
         <v>328.00099999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:26" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="2:26" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="31">
         <f>+I6/E6-1</f>
         <v>0.31801812476213076</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="31">
         <f>+K6/G6-1</f>
         <v>0.32891329203542652</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="31">
         <f>+L6/H6-1</f>
         <v>0.28895667474755871</v>
       </c>
-      <c r="W21" s="38">
+      <c r="W21" s="31">
         <f>+W6/V6-1</f>
         <v>0.69409764566847132</v>
       </c>
-      <c r="X21" s="38">
+      <c r="X21" s="31">
         <f>+X6/W6-1</f>
         <v>0.35864099544019612</v>
       </c>
-      <c r="Y21" s="38">
+      <c r="Y21" s="31">
         <f>+Y6/X6-1</f>
-        <v>0.27752075279824728</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+        <v>0.23947613904775666</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="30">
         <f>+H6/G6-1</f>
         <v>8.0851637029565326E-2</v>
       </c>
-      <c r="I22" s="37">
-        <f t="shared" ref="I22:K22" si="44">+I6/H6-1</f>
+      <c r="I22" s="30">
+        <f t="shared" ref="I22:K22" si="45">+I6/H6-1</f>
         <v>8.924835835244771E-2</v>
       </c>
-      <c r="J22" s="37">
-        <f t="shared" si="44"/>
+      <c r="J22" s="30">
+        <f t="shared" si="45"/>
         <v>5.5199523817955898E-2</v>
       </c>
-      <c r="K22" s="37">
-        <f t="shared" si="44"/>
+      <c r="K22" s="30">
+        <f t="shared" si="45"/>
         <v>6.9717399919194234E-2</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="30">
         <f>+L6/K6-1</f>
         <v>4.8353523371895246E-2</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="30">
         <v>0.06</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="30">
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="2:26" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="30">
         <f>+E8/E6</f>
         <v>0.65760967132711456</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="30">
         <f>+G8/G6</f>
         <v>0.66418483673001405</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="30">
         <f>+H8/H6</f>
         <v>0.67598491434946839</v>
       </c>
-      <c r="I24" s="37">
-        <f t="shared" ref="I24:J24" si="45">+I8/I6</f>
+      <c r="I24" s="30">
+        <f t="shared" ref="I24:J24" si="46">+I8/I6</f>
         <v>0.68815524406372885</v>
       </c>
-      <c r="J24" s="37">
-        <f t="shared" si="45"/>
+      <c r="J24" s="30">
+        <f t="shared" si="46"/>
         <v>0.68787361284834503</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="30">
         <f>+K8/K6</f>
         <v>0.67115477206112162</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="30">
         <f>+L8/L6</f>
         <v>0.66841087502014318</v>
       </c>
     </row>
-    <row r="25" spans="2:26" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="37" t="s">
+    <row r="25" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="30">
         <f>+E12/E6</f>
         <v>-0.36985393911975728</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="30">
         <f>+G12/G6</f>
         <v>-0.43816298614975319</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="30">
         <f>+H12/H6</f>
         <v>-0.42344121373613186</v>
       </c>
-      <c r="I25" s="37">
-        <f t="shared" ref="I25:J25" si="46">+I12/I6</f>
+      <c r="I25" s="30">
+        <f t="shared" ref="I25:J25" si="47">+I12/I6</f>
         <v>-0.35498853812384812</v>
       </c>
-      <c r="J25" s="37">
-        <f t="shared" si="46"/>
+      <c r="J25" s="30">
+        <f t="shared" si="47"/>
         <v>-0.35562844407957167</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="30">
         <f>+K12/K6</f>
         <v>-0.4206205073192158</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="30">
         <f>+L12/L6</f>
         <v>-0.40901724257004091</v>
       </c>
     </row>
-    <row r="26" spans="2:26" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="30">
         <f>+E17/E6</f>
         <v>-0.36163711698514284</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="30">
         <f>+G17/G6</f>
         <v>-0.36251501365460809</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="30">
         <f>+H17/H6</f>
         <v>-0.33726102270265795</v>
       </c>
-      <c r="I26" s="37">
-        <f t="shared" ref="I26:J26" si="47">+I17/I6</f>
+      <c r="I26" s="30">
+        <f t="shared" ref="I26:J26" si="48">+I17/I6</f>
         <v>-0.29242971343266494</v>
       </c>
-      <c r="J26" s="37">
-        <f t="shared" si="47"/>
+      <c r="J26" s="30">
+        <f t="shared" si="48"/>
         <v>-0.21932647389502252</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="30">
         <f>+K17/K6</f>
         <v>-0.38350735903676691</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="30">
         <f>+L17/L6</f>
         <v>-0.36581528119892281</v>
       </c>
     </row>
-    <row r="27" spans="2:26" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="30">
         <f>+E16/E15</f>
         <v>-2.0305622666930038E-2</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="30">
         <f>+G16/G15</f>
         <v>2.8387967455913772E-2</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="30">
         <f>+H16/H15</f>
         <v>1.6105366579957665E-2</v>
       </c>
-      <c r="I27" s="37">
-        <f t="shared" ref="I27:J27" si="48">+I16/I15</f>
+      <c r="I27" s="30">
+        <f t="shared" ref="I27:J27" si="49">+I16/I15</f>
         <v>-1.6052853262155591E-2</v>
       </c>
-      <c r="J27" s="37">
-        <f t="shared" si="48"/>
+      <c r="J27" s="30">
+        <f t="shared" si="49"/>
         <v>2.4676972177417027E-2</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="30">
         <f>+K16/K15</f>
         <v>-8.6354908837017411E-3</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="30">
         <f>+L16/L15</f>
         <v>-1.2056288153566408E-2</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="2:26" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="33">
-        <f t="shared" ref="C30:K30" si="49">+SUM(C31:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="33">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="33">
-        <f t="shared" si="49"/>
+      <c r="C30" s="27">
+        <f t="shared" ref="C30:K30" si="50">+SUM(C31:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="27">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="50"/>
         <v>5547</v>
       </c>
-      <c r="F30" s="33">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="33">
-        <f t="shared" si="49"/>
+      <c r="F30" s="27">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="50"/>
         <v>6310</v>
       </c>
-      <c r="H30" s="33">
-        <f t="shared" si="49"/>
+      <c r="H30" s="27">
+        <f t="shared" si="50"/>
         <v>6659</v>
       </c>
-      <c r="I30" s="33">
-        <f t="shared" si="49"/>
+      <c r="I30" s="27">
+        <f t="shared" si="50"/>
         <v>6783</v>
       </c>
-      <c r="J30" s="33">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="33">
-        <f t="shared" si="49"/>
+      <c r="J30" s="27">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="27">
+        <f t="shared" si="50"/>
         <v>7296</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="27">
         <f>+SUM(L31:L35)</f>
         <v>7630</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="34" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="1">
@@ -2858,7 +2877,7 @@
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="34" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="1">
@@ -2880,513 +2899,513 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="47" t="s">
+    <row r="33" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="7">
         <v>2625</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="7">
         <v>2866</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="7">
         <v>2979</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="7">
         <v>2978</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="7">
         <v>3130</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="7">
         <v>3235</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="47" t="s">
+    <row r="34" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="7">
         <v>1235</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="7">
         <v>1612</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="7">
         <v>1805</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="7">
         <v>1891</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="7">
         <v>2108</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="7">
         <v>2241</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="47" t="s">
+    <row r="35" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="7">
         <v>886</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="7">
         <v>925</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="7">
         <v>950</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="7">
         <v>989</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="7">
         <v>1095</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="7">
         <v>1152</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="46" t="s">
+    <row r="36" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="35">
         <f>+I30/E30-1</f>
         <v>0.22282314764737698</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="35">
         <f>+K30/G30-1</f>
         <v>0.15625990491283681</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="35">
         <f>+L30/H30-1</f>
         <v>0.14581769034389547</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" t="s">
+    <row r="40" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="27">
         <v>982.18200000000002</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="27">
         <v>1330.4110000000001</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="27">
         <v>1282.0450000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
+    <row r="41" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="27">
         <v>2566.357</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="27">
         <v>2200.9349999999999</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="27">
         <v>1948.462</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="34" t="s">
+    <row r="42" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="7">
         <v>511.03399999999999</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="7">
         <v>345.505</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="7">
         <v>431.59699999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="34" t="s">
+    <row r="43" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="7">
         <v>74.573999999999998</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="7">
         <v>85.447999999999993</v>
       </c>
-      <c r="L43" s="34">
+      <c r="L43" s="7">
         <v>86.899000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="34" t="s">
+    <row r="44" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="7">
         <v>178.136</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="7">
         <v>180.99100000000001</v>
       </c>
-      <c r="L44" s="34">
+      <c r="L44" s="7">
         <v>149.08500000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="34">
-        <f t="shared" ref="C45:K45" si="50">+SUM(C40:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="34">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="34">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="34">
-        <f t="shared" si="50"/>
+      <c r="C45" s="7">
+        <f t="shared" ref="C45:K45" si="51">+SUM(C40:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="51"/>
         <v>4312.2830000000004</v>
       </c>
-      <c r="J45" s="34">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="34">
-        <f t="shared" si="50"/>
+      <c r="J45" s="7">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="51"/>
         <v>4143.29</v>
       </c>
-      <c r="L45" s="34">
+      <c r="L45" s="7">
         <f>+SUM(L40:L44)</f>
         <v>3898.0880000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="33" t="s">
+    <row r="46" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="27">
         <v>947.82899999999995</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="27">
         <v>927.98099999999999</v>
       </c>
-      <c r="L46" s="33">
+      <c r="L46" s="27">
         <v>697.40599999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="34" t="s">
+    <row r="47" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="7">
         <v>216.38</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="7">
         <v>263.66699999999997</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="7">
         <v>264.77800000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="34" t="s">
+    <row r="48" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="7">
         <v>254.23599999999999</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="7">
         <v>244.68100000000001</v>
       </c>
-      <c r="L48" s="34">
+      <c r="L48" s="7">
         <v>272.459</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="34" t="s">
+    <row r="49" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="7">
         <f>784.405+329.767</f>
         <v>1114.172</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="7">
         <f>975.906+307.967</f>
         <v>1283.873</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="7">
         <f>984.076+286.538</f>
         <v>1270.614</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="34" t="s">
+    <row r="50" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="7">
         <v>150.36199999999999</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="7">
         <v>179.917</v>
       </c>
-      <c r="L50" s="34">
+      <c r="L50" s="7">
         <v>177.45699999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
+    <row r="51" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="7">
         <v>269.11700000000002</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="7">
         <v>254.60900000000001</v>
       </c>
-      <c r="L51" s="34">
+      <c r="L51" s="7">
         <v>363.084</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="34" t="s">
+    <row r="52" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="34">
-        <f t="shared" ref="C52:K52" si="51">+SUM(C45:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="34">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="34">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="34">
-        <f t="shared" si="51"/>
+      <c r="C52" s="7">
+        <f t="shared" ref="C52:K52" si="52">+SUM(C45:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="52"/>
         <v>7264.3789999999999</v>
       </c>
-      <c r="J52" s="34">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="34">
-        <f t="shared" si="51"/>
+      <c r="J52" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" si="52"/>
         <v>7298.0180000000009</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="7">
         <f>+SUM(L45:L51)</f>
         <v>6943.8860000000013</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="34" t="s">
+    <row r="53" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54" s="7">
         <v>75.456000000000003</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="7">
         <v>64.239000000000004</v>
       </c>
-      <c r="L54" s="34">
+      <c r="L54" s="7">
         <v>134.53700000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="34" t="s">
+    <row r="55" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="7">
         <v>318.28100000000001</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="7">
         <v>398.00200000000001</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="7">
         <v>448.92599999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
+    <row r="56" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56" s="7">
         <v>33.347999999999999</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="7">
         <v>30.94</v>
       </c>
-      <c r="L56" s="34">
+      <c r="L56" s="7">
         <v>32.843000000000004</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="34" t="s">
+    <row r="57" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="7">
         <v>1605.587</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="7">
         <v>1935.6420000000001</v>
       </c>
-      <c r="L57" s="34">
+      <c r="L57" s="7">
         <v>1848.376</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="34" t="s">
+    <row r="58" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="34">
-        <f t="shared" ref="C58:K58" si="52">+SUM(C54:C57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="34">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="34">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="34">
-        <f t="shared" si="52"/>
+      <c r="C58" s="7">
+        <f t="shared" ref="C58:K58" si="53">+SUM(C54:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="53"/>
         <v>2032.672</v>
       </c>
-      <c r="J58" s="34">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="34">
-        <f t="shared" si="52"/>
+      <c r="J58" s="7">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="53"/>
         <v>2428.8229999999999</v>
       </c>
-      <c r="L58" s="34">
+      <c r="L58" s="7">
         <f>+SUM(L54:L57)</f>
         <v>2464.6819999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="34" t="s">
+    <row r="59" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="7">
         <v>253.029</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="7">
         <v>247.501</v>
       </c>
-      <c r="L59" s="34">
+      <c r="L59" s="7">
         <v>279.96899999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="34" t="s">
+    <row r="60" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60" s="7">
         <v>12.082000000000001</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="7">
         <v>14.692</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="7">
         <v>12.28</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="34" t="s">
+    <row r="61" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="7">
         <v>25.829000000000001</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="7">
         <v>39.31</v>
       </c>
-      <c r="L61" s="34">
+      <c r="L61" s="7">
         <v>49.366999999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="34" t="s">
+    <row r="62" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="34">
-        <f t="shared" ref="C62:K62" si="53">+SUM(C58:C61)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="34">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="34">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="34">
-        <f t="shared" si="53"/>
+      <c r="C62" s="7">
+        <f t="shared" ref="C62:K62" si="54">+SUM(C58:C61)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="54"/>
         <v>2323.6120000000001</v>
       </c>
-      <c r="J62" s="34">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="34">
-        <f t="shared" si="53"/>
+      <c r="J62" s="7">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" si="54"/>
         <v>2730.326</v>
       </c>
-      <c r="L62" s="34">
+      <c r="L62" s="7">
         <f>+SUM(L58:L61)</f>
         <v>2806.2980000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="34" t="s">
+    <row r="63" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="7">
         <v>4940.7669999999998</v>
       </c>
-      <c r="K64" s="34">
+      <c r="K64" s="7">
         <v>4567.692</v>
       </c>
-      <c r="L64" s="34">
+      <c r="L64" s="7">
         <v>4137.5879999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="34" t="s">
+    <row r="65" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="7">
         <f>+I64+I62</f>
         <v>7264.3789999999999</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="7">
         <f>+K64+K62</f>
         <v>7298.018</v>
       </c>
-      <c r="L65" s="34">
+      <c r="L65" s="7">
         <f>+L64+L62</f>
         <v>6943.8860000000004</v>
       </c>
@@ -3395,15 +3414,15 @@
       <c r="B67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="34">
+      <c r="I67" s="7">
         <f>+I52-I62</f>
         <v>4940.7669999999998</v>
       </c>
-      <c r="K67" s="34">
+      <c r="K67" s="7">
         <f>+K52-K62</f>
         <v>4567.6920000000009</v>
       </c>
-      <c r="L67" s="34">
+      <c r="L67" s="7">
         <f>+L52-L62</f>
         <v>4137.5880000000016</v>
       </c>
@@ -3429,15 +3448,15 @@
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I70" s="34">
+      <c r="I70" s="7">
         <f>+I40+I41+I46</f>
         <v>4496.3679999999995</v>
       </c>
-      <c r="K70" s="34">
+      <c r="K70" s="7">
         <f>+K40+K41+K46</f>
         <v>4459.3270000000002</v>
       </c>
-      <c r="L70" s="34">
+      <c r="L70" s="7">
         <f>+L40+L41+L46</f>
         <v>3927.913</v>
       </c>
@@ -3460,53 +3479,53 @@
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="34">
+      <c r="I72" s="7">
         <f>+I70-I71</f>
         <v>4496.3679999999995</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="7">
         <f>+K70-K71</f>
         <v>4459.3270000000002</v>
       </c>
-      <c r="L72" s="34">
+      <c r="L72" s="7">
         <f>+L70-L71</f>
         <v>3927.913</v>
       </c>
     </row>
-    <row r="74" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="35" t="s">
+    <row r="74" spans="2:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="35">
+      <c r="I74" s="28">
         <v>199</v>
       </c>
-      <c r="J74" s="35">
+      <c r="J74" s="28">
         <v>195.64</v>
       </c>
-      <c r="K74" s="35">
+      <c r="K74" s="28">
         <v>130.38</v>
       </c>
-      <c r="L74" s="35">
+      <c r="L74" s="28">
         <v>110.41</v>
       </c>
     </row>
-    <row r="75" spans="2:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="34" t="s">
+    <row r="75" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="34">
+      <c r="I75" s="7">
         <f>+I74*I19</f>
         <v>65532.69</v>
       </c>
-      <c r="J75" s="34">
+      <c r="J75" s="7">
         <f>+J74*J19</f>
         <v>64170.115639999989</v>
       </c>
-      <c r="K75" s="34">
+      <c r="K75" s="7">
         <f>+K74*K19</f>
         <v>43492.681919999995</v>
       </c>
-      <c r="L75" s="34">
+      <c r="L75" s="7">
         <f>+L74*L19</f>
         <v>36884.779110000003</v>
       </c>
@@ -3515,32 +3534,32 @@
       <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="34">
+      <c r="I76" s="7">
         <f>+I75-I72</f>
         <v>61036.322</v>
       </c>
-      <c r="K76" s="34">
+      <c r="K76" s="7">
         <f>+K75-K72</f>
         <v>39033.354919999998</v>
       </c>
-      <c r="L76" s="34">
+      <c r="L76" s="7">
         <f>+L75-L72</f>
         <v>32956.866110000003</v>
       </c>
     </row>
-    <row r="78" spans="2:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="51" t="s">
+    <row r="78" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="39">
         <f>+I74/I68</f>
         <v>13.26366736176792</v>
       </c>
-      <c r="K78" s="51">
+      <c r="K78" s="39">
         <f>+K74/K68</f>
         <v>9.5218070570432491</v>
       </c>
-      <c r="L78" s="51">
+      <c r="L78" s="39">
         <f>+L74/L68</f>
         <v>8.9145606353266658</v>
       </c>
@@ -3556,124 +3575,124 @@
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="34" t="s">
+    <row r="83" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G83" s="34">
+      <c r="G83" s="7">
         <v>299.44</v>
       </c>
-      <c r="H83" s="34">
+      <c r="H83" s="7">
         <f>382.635-G83</f>
         <v>83.194999999999993</v>
       </c>
-      <c r="I83" s="34">
+      <c r="I83" s="7">
         <f>503.534-SUM(G83:H83)</f>
         <v>120.899</v>
       </c>
-      <c r="J83" s="34">
+      <c r="J83" s="7">
         <f>+X83-SUM(G83:I83)</f>
         <v>344.58799999999997</v>
       </c>
-      <c r="K83" s="34">
+      <c r="K83" s="7">
         <v>355.46800000000002</v>
       </c>
-      <c r="L83" s="34">
+      <c r="L83" s="7">
         <f>425.333-K83</f>
         <v>69.865000000000009</v>
       </c>
-      <c r="V83" s="34">
+      <c r="V83" s="7">
         <v>110.179</v>
       </c>
-      <c r="W83" s="34">
+      <c r="W83" s="7">
         <v>545.63900000000001</v>
       </c>
-      <c r="X83" s="34">
+      <c r="X83" s="7">
         <v>848.12199999999996</v>
       </c>
     </row>
-    <row r="84" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="34" t="s">
+    <row r="84" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G84" s="34">
+      <c r="G84" s="7">
         <f>6.97+9.341</f>
         <v>16.311</v>
       </c>
-      <c r="H84" s="34">
+      <c r="H84" s="7">
         <f>+(13.268+17.215)-G84</f>
         <v>14.172000000000001</v>
       </c>
-      <c r="I84" s="34">
+      <c r="I84" s="7">
         <f>+(22.014+27.104)-SUM(G84:H84)</f>
         <v>18.634999999999994</v>
       </c>
-      <c r="J84" s="34">
+      <c r="J84" s="7">
         <f>+X84-SUM(G84:I84)</f>
         <v>20.100999999999999</v>
       </c>
-      <c r="K84" s="34">
+      <c r="K84" s="7">
         <f>16.519+7.404</f>
         <v>23.922999999999998</v>
       </c>
-      <c r="L84" s="34">
+      <c r="L84" s="7">
         <f>+(21.562+13.396)-K84</f>
         <v>11.035</v>
       </c>
-      <c r="V84" s="34">
+      <c r="V84" s="7">
         <f>16.221+12.772</f>
         <v>28.993000000000002</v>
       </c>
-      <c r="W84" s="34">
+      <c r="W84" s="7">
         <f>25.128+24.012</f>
         <v>49.14</v>
       </c>
-      <c r="X84" s="34">
+      <c r="X84" s="7">
         <f>35.086+34.133</f>
         <v>69.218999999999994</v>
       </c>
     </row>
-    <row r="85" spans="2:24" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="34" t="s">
+    <row r="85" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="34">
-        <f>+G83-G84</f>
+      <c r="G85" s="7">
+        <f t="shared" ref="G85:L85" si="55">+G83-G84</f>
         <v>283.12900000000002</v>
       </c>
-      <c r="H85" s="34">
-        <f>+H83-H84</f>
+      <c r="H85" s="7">
+        <f t="shared" si="55"/>
         <v>69.022999999999996</v>
       </c>
-      <c r="I85" s="34">
-        <f>+I83-I84</f>
+      <c r="I85" s="7">
+        <f t="shared" si="55"/>
         <v>102.26400000000001</v>
       </c>
-      <c r="J85" s="34">
-        <f>+J83-J84</f>
+      <c r="J85" s="7">
+        <f t="shared" si="55"/>
         <v>324.48699999999997</v>
       </c>
-      <c r="K85" s="34">
-        <f>+K83-K84</f>
+      <c r="K85" s="7">
+        <f t="shared" si="55"/>
         <v>331.54500000000002</v>
       </c>
-      <c r="L85" s="34">
-        <f>+L83-L84</f>
+      <c r="L85" s="7">
+        <f t="shared" si="55"/>
         <v>58.830000000000013</v>
       </c>
-      <c r="V85" s="34">
+      <c r="V85" s="7">
         <f>+V83-V84</f>
         <v>81.186000000000007</v>
       </c>
-      <c r="W85" s="34">
+      <c r="W85" s="7">
         <f>+W83-W84</f>
         <v>496.49900000000002</v>
       </c>
-      <c r="X85" s="34">
+      <c r="X85" s="7">
         <f>+X83-X84</f>
         <v>778.90300000000002</v>
       </c>
@@ -3682,27 +3701,27 @@
       <c r="B87" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J87" s="34">
+      <c r="J87" s="7">
         <f>+SUM(G83:J83)</f>
         <v>848.12199999999996</v>
       </c>
-      <c r="K87" s="34">
+      <c r="K87" s="7">
         <f>+SUM(H83:K83)</f>
         <v>904.15000000000009</v>
       </c>
-      <c r="L87" s="34">
+      <c r="L87" s="7">
         <f>+SUM(I83:L83)</f>
         <v>890.81999999999994</v>
       </c>
-      <c r="V87" s="34">
+      <c r="V87" s="7">
         <f>+V85</f>
         <v>81.186000000000007</v>
       </c>
-      <c r="W87" s="34">
+      <c r="W87" s="7">
         <f>+W85</f>
         <v>496.49900000000002</v>
       </c>
-      <c r="X87" s="34">
+      <c r="X87" s="7">
         <f>+X85</f>
         <v>778.90300000000002</v>
       </c>
@@ -3736,15 +3755,15 @@
         <v>2.3746970283627187</v>
       </c>
     </row>
-    <row r="90" spans="2:24" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="51" t="s">
+    <row r="90" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="51">
+      <c r="K90" s="39">
         <f>+K74/K88</f>
         <v>48.103392047779678</v>
       </c>
-      <c r="L90" s="51">
+      <c r="L90" s="39">
         <f>+L74/L88</f>
         <v>41.405423216811485</v>
       </c>

--- a/$SNOW.xlsx
+++ b/$SNOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1531AC-E95C-460F-B161-0EFE8936F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{657446EA-B51D-40E8-9CCA-645A0E3980CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07A47022-C50C-40F5-94BD-B152A09AB513}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07A47022-C50C-40F5-94BD-B152A09AB513}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>$SNOW</t>
   </si>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,16 +687,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,6 +711,7 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1092,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3745FC-C958-4377-A508-4BB5D958D24C}">
-  <dimension ref="B2:T38"/>
+  <dimension ref="A2:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1106,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,12 +1114,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
@@ -1139,12 +1140,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>130.24</v>
+        <v>158.65</v>
       </c>
       <c r="D6" s="5"/>
       <c r="G6" s="13"/>
@@ -1163,17 +1164,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7">
-        <f>+'Financial Model'!L19</f>
-        <v>334.07100000000003</v>
+        <f>+'Financial Model'!M19</f>
+        <v>331.76100000000002</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>+$C$29</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="17"/>
@@ -1191,13 +1192,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7">
         <f>C6*C7</f>
-        <v>43509.407040000006</v>
+        <v>52633.882650000007</v>
       </c>
       <c r="D8" s="5"/>
       <c r="G8" s="13"/>
@@ -1216,17 +1217,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7">
-        <f>+'Financial Model'!L70</f>
-        <v>3927.913</v>
+        <f>+'Financial Model'!M71</f>
+        <v>5049.7669999999998</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" ref="D9:D11" si="0">+$C$29</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G9" s="21">
         <v>45323</v>
@@ -1242,17 +1243,17 @@
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7">
-        <f>+'Financial Model'!L71</f>
-        <v>0</v>
+        <f>+'Financial Model'!M72</f>
+        <v>2269.4589999999998</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="17"/>
@@ -1264,17 +1265,17 @@
       <c r="N10" s="17"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7">
         <f>C9-C10</f>
-        <v>3927.913</v>
+        <v>2780.308</v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="17"/>
@@ -1286,13 +1287,13 @@
       <c r="N11" s="17"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="8">
         <f>+C8-C11</f>
-        <v>39581.494040000005</v>
+        <v>49853.57465000001</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="13">
@@ -1309,7 +1310,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G13" s="13"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1320,7 +1321,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G14" s="13"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1331,7 +1332,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1348,10 @@
       <c r="N15" s="17"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
+        <v>45351</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
@@ -1401,8 +1405,8 @@
       <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="G19" s="13"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1528,8 +1532,8 @@
         <v>115</v>
       </c>
       <c r="C27" s="49">
-        <f>+'Financial Model'!L30</f>
-        <v>7630</v>
+        <f>+'Financial Model'!M30</f>
+        <v>7823</v>
       </c>
       <c r="D27" s="41"/>
       <c r="G27" s="13"/>
@@ -1563,10 +1567,11 @@
         <v>19</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="33">
-        <v>45533</v>
+        <f>+'Financial Model'!M3</f>
+        <v>46692</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="19"/>
@@ -1582,10 +1587,10 @@
       <c r="B30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="43"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
@@ -1598,21 +1603,21 @@
       <c r="B34" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="42">
-        <f>+C6/'Financial Model'!L68</f>
-        <v>10.51564511498003</v>
-      </c>
-      <c r="D34" s="43"/>
+      <c r="C34" s="44">
+        <f>+C6/'Financial Model'!M69</f>
+        <v>17.936791582223204</v>
+      </c>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="42">
-        <f>+C8/SUM('Financial Model'!I6:L6)</f>
-        <v>13.569715649610261</v>
-      </c>
-      <c r="D35" s="43"/>
+      <c r="C35" s="44">
+        <f>+C8/SUM('Financial Model'!J6:M6)</f>
+        <v>15.415798299613215</v>
+      </c>
+      <c r="D35" s="45"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
@@ -1625,28 +1630,23 @@
       <c r="B37" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="42">
-        <f>+C6/'Financial Model'!L88</f>
-        <v>48.841973732067096</v>
-      </c>
-      <c r="D37" s="43"/>
+      <c r="C37" s="44">
+        <f>+C6/'Financial Model'!M89</f>
+        <v>60.385787326459614</v>
+      </c>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C30:D30"/>
@@ -1662,6 +1662,11 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1671,13 +1676,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D05485-1DCA-42FF-AB95-1900CC5BD467}">
-  <dimension ref="B1:Z90"/>
+  <dimension ref="B1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1723,7 @@
       <c r="L1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="23" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="16" t="s">
@@ -1801,7 +1806,7 @@
         <v>47331</v>
       </c>
       <c r="M3" s="25">
-        <v>44136</v>
+        <v>46692</v>
       </c>
       <c r="X3" s="25">
         <v>46082</v>
@@ -1834,7 +1839,7 @@
         <v>829.25</v>
       </c>
       <c r="M4" s="38">
-        <v>829.25</v>
+        <v>900.28200000000004</v>
       </c>
       <c r="V4" s="38">
         <v>1140.4690000000001</v>
@@ -1873,7 +1878,7 @@
         <v>39.53</v>
       </c>
       <c r="M5" s="38">
-        <v>39.573</v>
+        <v>41.811999999999998</v>
       </c>
       <c r="V5" s="38">
         <v>78.858000000000004</v>
@@ -1931,11 +1936,11 @@
       </c>
       <c r="M6" s="27">
         <f>+M4+M5</f>
-        <v>868.82299999999998</v>
+        <v>942.09400000000005</v>
       </c>
       <c r="N6" s="27">
         <f>+M6*(1+N22)</f>
-        <v>912.26414999999997</v>
+        <v>989.19870000000014</v>
       </c>
       <c r="S6" s="27">
         <f t="shared" ref="S6:Z6" si="1">+S4+S5</f>
@@ -1963,7 +1968,7 @@
       </c>
       <c r="Y6" s="27">
         <f>+SUM(K6:N6)</f>
-        <v>3478.5761499999999</v>
+        <v>3628.7817000000005</v>
       </c>
       <c r="Z6" s="27">
         <f t="shared" si="1"/>
@@ -1996,6 +2001,9 @@
       <c r="L7" s="7">
         <v>288.07799999999997</v>
       </c>
+      <c r="M7" s="7">
+        <v>320.89400000000001</v>
+      </c>
       <c r="V7" s="7">
         <v>458.43299999999999</v>
       </c>
@@ -2050,6 +2058,10 @@
         <f>+L6-L7</f>
         <v>580.702</v>
       </c>
+      <c r="M8" s="27">
+        <f>+M6-M7</f>
+        <v>621.20000000000005</v>
+      </c>
       <c r="S8" s="27">
         <f t="shared" ref="S8:Z8" si="11">+S6-S7</f>
         <v>0</v>
@@ -2076,7 +2088,7 @@
       </c>
       <c r="Y8" s="27">
         <f t="shared" si="11"/>
-        <v>3478.5761499999999</v>
+        <v>3628.7817000000005</v>
       </c>
       <c r="Z8" s="27">
         <f t="shared" si="11"/>
@@ -2109,6 +2121,9 @@
       <c r="L9" s="7">
         <v>400.625</v>
       </c>
+      <c r="M9" s="7">
+        <v>437.96199999999999</v>
+      </c>
       <c r="V9" s="7">
         <v>743.96500000000003</v>
       </c>
@@ -2145,6 +2160,9 @@
       <c r="L10" s="7">
         <v>437.66</v>
       </c>
+      <c r="M10" s="7">
+        <v>442.435</v>
+      </c>
       <c r="V10" s="7">
         <v>466.93200000000002</v>
       </c>
@@ -2181,6 +2199,9 @@
       <c r="L11" s="7">
         <v>97.763000000000005</v>
       </c>
+      <c r="M11" s="7">
+        <v>106.26</v>
+      </c>
       <c r="V11" s="7">
         <v>265.03300000000002</v>
       </c>
@@ -2235,6 +2256,10 @@
         <f>+L8-SUM(L9:L11)</f>
         <v>-355.34600000000012</v>
       </c>
+      <c r="M12" s="27">
+        <f>+M8-SUM(M9:M11)</f>
+        <v>-365.45699999999988</v>
+      </c>
       <c r="S12" s="27">
         <f t="shared" ref="S12:Z12" si="22">+S8-SUM(S9:S11)</f>
         <v>0</v>
@@ -2261,7 +2286,7 @@
       </c>
       <c r="Y12" s="27">
         <f t="shared" si="22"/>
-        <v>3478.5761499999999</v>
+        <v>3628.7817000000005</v>
       </c>
       <c r="Z12" s="27">
         <f t="shared" si="22"/>
@@ -2294,6 +2319,9 @@
       <c r="L13" s="7">
         <v>49.265000000000001</v>
       </c>
+      <c r="M13" s="7">
+        <v>48.655000000000001</v>
+      </c>
       <c r="V13" s="7">
         <v>9.1289999999999996</v>
       </c>
@@ -2330,6 +2358,10 @@
       <c r="L14" s="7">
         <v>-7.9459999999999997</v>
       </c>
+      <c r="M14" s="7">
+        <f>0.689-8.474</f>
+        <v>-7.7850000000000001</v>
+      </c>
       <c r="V14" s="7">
         <v>28.946999999999999</v>
       </c>
@@ -2384,6 +2416,10 @@
         <f>+L12+L13+L14</f>
         <v>-314.02700000000016</v>
       </c>
+      <c r="M15" s="7">
+        <f>+M12+M13+M14</f>
+        <v>-324.58699999999993</v>
+      </c>
       <c r="S15" s="7">
         <f t="shared" ref="S15:Z15" si="33">+S12+S13+S14</f>
         <v>0</v>
@@ -2410,7 +2446,7 @@
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="33"/>
-        <v>3478.5761499999999</v>
+        <v>3628.7817000000005</v>
       </c>
       <c r="Z15" s="7">
         <f t="shared" si="33"/>
@@ -2443,6 +2479,9 @@
       <c r="L16" s="7">
         <v>3.786</v>
       </c>
+      <c r="M16" s="7">
+        <v>1.9370000000000001</v>
+      </c>
       <c r="V16" s="7">
         <v>2.988</v>
       </c>
@@ -2497,6 +2536,10 @@
         <f>+L15-L16</f>
         <v>-317.81300000000016</v>
       </c>
+      <c r="M17" s="27">
+        <f>+M15-M16</f>
+        <v>-326.52399999999994</v>
+      </c>
       <c r="S17" s="27">
         <f t="shared" ref="S17:Z17" si="43">+S15-S16</f>
         <v>0</v>
@@ -2523,7 +2566,7 @@
       </c>
       <c r="Y17" s="27">
         <f t="shared" si="43"/>
-        <v>3478.5761499999999</v>
+        <v>3628.7817000000005</v>
       </c>
       <c r="Z17" s="27">
         <f t="shared" si="43"/>
@@ -2539,7 +2582,7 @@
         <v>-0.62924078904212322</v>
       </c>
       <c r="G18" s="29">
-        <f t="shared" ref="G18:L18" si="44">+G17/G19</f>
+        <f t="shared" ref="G18:M18" si="44">+G17/G19</f>
         <v>-0.69739046202920185</v>
       </c>
       <c r="H18" s="29">
@@ -2562,6 +2605,10 @@
         <f t="shared" si="44"/>
         <v>-0.95133369852516425</v>
       </c>
+      <c r="M18" s="29">
+        <f t="shared" si="44"/>
+        <v>-0.98421453998510955</v>
+      </c>
       <c r="V18" s="29">
         <f>+V17/V19</f>
         <v>-2.2644326995767177</v>
@@ -2601,6 +2648,9 @@
       <c r="L19" s="7">
         <v>334.07100000000003</v>
       </c>
+      <c r="M19" s="7">
+        <v>331.76100000000002</v>
+      </c>
       <c r="V19" s="7">
         <v>300.27300000000002</v>
       </c>
@@ -2627,6 +2677,10 @@
         <f>+L6/H6-1</f>
         <v>0.28895667474755871</v>
       </c>
+      <c r="M21" s="31">
+        <f>+M6/I6-1</f>
+        <v>0.2832043673630058</v>
+      </c>
       <c r="W21" s="31">
         <f>+W6/V6-1</f>
         <v>0.69409764566847132</v>
@@ -2637,7 +2691,7 @@
       </c>
       <c r="Y21" s="31">
         <f>+Y6/X6-1</f>
-        <v>0.23947613904775666</v>
+        <v>0.29299694386829955</v>
       </c>
     </row>
     <row r="22" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -2665,7 +2719,8 @@
         <v>4.8353523371895246E-2</v>
       </c>
       <c r="M22" s="30">
-        <v>0.06</v>
+        <f>+M6/L6-1</f>
+        <v>8.4387301733465314E-2</v>
       </c>
       <c r="N22" s="30">
         <v>0.05</v>
@@ -2703,6 +2758,10 @@
         <f>+L8/L6</f>
         <v>0.66841087502014318</v>
       </c>
+      <c r="M24" s="30">
+        <f>+M8/M6</f>
+        <v>0.65938218479260036</v>
+      </c>
     </row>
     <row r="25" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
@@ -2736,6 +2795,10 @@
         <f>+L12/L6</f>
         <v>-0.40901724257004091</v>
       </c>
+      <c r="M25" s="30">
+        <f>+M12/M6</f>
+        <v>-0.38791988909811531</v>
+      </c>
     </row>
     <row r="26" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="30" t="s">
@@ -2769,6 +2832,10 @@
         <f>+L17/L6</f>
         <v>-0.36581528119892281</v>
       </c>
+      <c r="M26" s="30">
+        <f>+M17/M6</f>
+        <v>-0.34659386430653411</v>
+      </c>
     </row>
     <row r="27" spans="2:26" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
@@ -2802,6 +2869,10 @@
         <f>+L16/L15</f>
         <v>-1.2056288153566408E-2</v>
       </c>
+      <c r="M27" s="30">
+        <f>+M16/M15</f>
+        <v>-5.9675834213939573E-3</v>
+      </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="32" t="s">
@@ -2852,6 +2923,10 @@
         <f>+SUM(L31:L35)</f>
         <v>7630</v>
       </c>
+      <c r="M30" s="27">
+        <f>+SUM(M31:M35)</f>
+        <v>7823</v>
+      </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
@@ -2875,6 +2950,9 @@
       <c r="L31" s="1">
         <v>449</v>
       </c>
+      <c r="M31" s="1">
+        <v>484</v>
+      </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
@@ -2898,8 +2976,11 @@
       <c r="L32" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="36" t="s">
         <v>117</v>
       </c>
@@ -2921,8 +3002,11 @@
       <c r="L33" s="7">
         <v>3235</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="7">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="36" t="s">
         <v>118</v>
       </c>
@@ -2944,8 +3028,11 @@
       <c r="L34" s="7">
         <v>2241</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="7">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="36" t="s">
         <v>119</v>
       </c>
@@ -2967,8 +3054,11 @@
       <c r="L35" s="7">
         <v>1152</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="7">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
         <v>114</v>
       </c>
@@ -2984,13 +3074,17 @@
         <f>+L30/H30-1</f>
         <v>0.14581769034389547</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="35">
+        <f>+M30/I30-1</f>
+        <v>0.15332448768981277</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
@@ -3003,8 +3097,11 @@
       <c r="L40" s="27">
         <v>1282.0450000000001</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="27">
+        <v>2148.9279999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27" t="s">
         <v>72</v>
       </c>
@@ -3017,8 +3114,11 @@
       <c r="L41" s="27">
         <v>1948.462</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="27">
+        <v>2008.0619999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>73</v>
       </c>
@@ -3031,8 +3131,11 @@
       <c r="L42" s="7">
         <v>431.59699999999998</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="7">
+        <v>596.35199999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>74</v>
       </c>
@@ -3045,8 +3148,11 @@
       <c r="L43" s="7">
         <v>86.899000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="7">
+        <v>89.831000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>75</v>
       </c>
@@ -3059,8 +3165,11 @@
       <c r="L44" s="7">
         <v>149.08500000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="7">
+        <v>140.898</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>76</v>
       </c>
@@ -3092,8 +3201,12 @@
         <f>+SUM(L40:L44)</f>
         <v>3898.0880000000002</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="7">
+        <f>+SUM(M40:M44)</f>
+        <v>4984.0709999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27" t="s">
         <v>77</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="L46" s="27">
         <v>697.40599999999995</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="27">
+        <v>892.77700000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>78</v>
       </c>
@@ -3120,8 +3236,11 @@
       <c r="L47" s="7">
         <v>264.77800000000002</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="7">
+        <v>278.37400000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>79</v>
       </c>
@@ -3134,8 +3253,11 @@
       <c r="L48" s="7">
         <v>272.459</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="7">
+        <v>280.71899999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>80</v>
       </c>
@@ -3151,8 +3273,12 @@
         <f>984.076+286.538</f>
         <v>1270.614</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="7">
+        <f>990.665+268.514</f>
+        <v>1259.1790000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3291,11 @@
       <c r="L50" s="7">
         <v>177.45699999999999</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="7">
+        <v>177.30699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>81</v>
       </c>
@@ -3179,8 +3308,11 @@
       <c r="L51" s="7">
         <v>363.084</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="7">
+        <v>329.83100000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>82</v>
       </c>
@@ -3212,9 +3344,13 @@
         <f>+SUM(L45:L51)</f>
         <v>6943.8860000000013</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="7">
+        <f>+SUM(M45:M51)</f>
+        <v>8202.2579999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>83</v>
       </c>
@@ -3227,8 +3363,11 @@
       <c r="L54" s="7">
         <v>134.53700000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="7">
+        <v>148.91999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>84</v>
       </c>
@@ -3241,8 +3380,11 @@
       <c r="L55" s="7">
         <v>448.92599999999999</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="7">
+        <v>485.13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>85</v>
       </c>
@@ -3255,8 +3397,11 @@
       <c r="L56" s="7">
         <v>32.843000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="7">
+        <v>38.287999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>86</v>
       </c>
@@ -3269,8 +3414,11 @@
       <c r="L57" s="7">
         <v>1848.376</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M57" s="7">
+        <v>1974.934</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>87</v>
       </c>
@@ -3302,470 +3450,579 @@
         <f>+SUM(L54:L57)</f>
         <v>2464.6819999999998</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="s">
+      <c r="M58" s="7">
+        <f>+SUM(M54:M57)</f>
+        <v>2647.2719999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="27">
+        <v>0</v>
+      </c>
+      <c r="G59" s="27">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27">
+        <v>0</v>
+      </c>
+      <c r="I59" s="27">
+        <v>0</v>
+      </c>
+      <c r="K59" s="27">
+        <v>0</v>
+      </c>
+      <c r="L59" s="27">
+        <v>0</v>
+      </c>
+      <c r="M59" s="27">
+        <v>2269.4589999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I60" s="7">
         <v>253.029</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K60" s="7">
         <v>247.501</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L60" s="7">
         <v>279.96899999999999</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
+      <c r="M60" s="7">
+        <v>287.88099999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="7">
         <v>12.082000000000001</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="7">
         <v>14.692</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L61" s="7">
         <v>12.28</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="s">
+      <c r="M61" s="7">
+        <v>11.973000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I62" s="7">
         <v>25.829000000000001</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K62" s="7">
         <v>39.31</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L62" s="7">
         <v>49.366999999999997</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="7" t="s">
+      <c r="M62" s="7">
+        <v>51.264000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="7">
-        <f t="shared" ref="C62:K62" si="54">+SUM(C58:C61)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="7">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <f t="shared" si="54"/>
+      <c r="C63" s="7">
+        <f t="shared" ref="C63:K63" si="54">+SUM(C58:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <f>SUM(G58:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <f>SUM(H58:H62)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <f>SUM(I58:I62)</f>
         <v>2323.6120000000001</v>
       </c>
-      <c r="J62" s="7">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="7">
-        <f t="shared" si="54"/>
+      <c r="J63" s="7">
+        <f>SUM(J58:J62)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <f>SUM(K58:K62)</f>
         <v>2730.326</v>
       </c>
-      <c r="L62" s="7">
-        <f>+SUM(L58:L61)</f>
+      <c r="L63" s="7">
+        <f>SUM(L58:L62)</f>
         <v>2806.2980000000002</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="s">
+      <c r="M63" s="7">
+        <f>SUM(M58:M62)</f>
+        <v>5267.8490000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I65" s="7">
         <v>4940.7669999999998</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K65" s="7">
         <v>4567.692</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L65" s="7">
         <v>4137.5879999999997</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="7" t="s">
+      <c r="M65" s="7">
+        <v>2934.4090000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I65" s="7">
-        <f>+I64+I62</f>
+      <c r="I66" s="7">
+        <f>+I65+I63</f>
         <v>7264.3789999999999</v>
       </c>
-      <c r="K65" s="7">
-        <f>+K64+K62</f>
+      <c r="K66" s="7">
+        <f>+K65+K63</f>
         <v>7298.018</v>
       </c>
-      <c r="L65" s="7">
-        <f>+L64+L62</f>
+      <c r="L66" s="7">
+        <f>+L65+L63</f>
         <v>6943.8860000000004</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="M66" s="7">
+        <f>+M65+M63</f>
+        <v>8202.2579999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="7">
-        <f>+I52-I62</f>
+      <c r="I68" s="7">
+        <f>+I52-I63</f>
         <v>4940.7669999999998</v>
       </c>
-      <c r="K67" s="7">
-        <f>+K52-K62</f>
+      <c r="K68" s="7">
+        <f>+K52-K63</f>
         <v>4567.6920000000009</v>
       </c>
-      <c r="L67" s="7">
-        <f>+L52-L62</f>
+      <c r="L68" s="7">
+        <f>+L52-L63</f>
         <v>4137.5880000000016</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="M68" s="7">
+        <f>+M52-M63</f>
+        <v>2934.4089999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I68" s="1">
-        <f>+I67/I19</f>
+      <c r="I69" s="1">
+        <f>+I68/I19</f>
         <v>15.003391940724544</v>
       </c>
-      <c r="K68" s="1">
-        <f>+K67/K19</f>
+      <c r="K69" s="1">
+        <f>+K68/K19</f>
         <v>13.692779030169316</v>
       </c>
-      <c r="L68" s="1">
-        <f>+L67/L19</f>
+      <c r="L69" s="1">
+        <f>+L68/L19</f>
         <v>12.385355208922658</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="M69" s="1">
+        <f>+M68/M19</f>
+        <v>8.8449486226530531</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="7">
         <f>+I40+I41+I46</f>
         <v>4496.3679999999995</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="7">
         <f>+K40+K41+K46</f>
         <v>4459.3270000000002</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L71" s="7">
         <f>+L40+L41+L46</f>
         <v>3927.913</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="M71" s="7">
+        <f>+M40+M41+M46</f>
+        <v>5049.7669999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <f>+M59</f>
+        <v>2269.4589999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="7">
-        <f>+I70-I71</f>
+      <c r="I73" s="7">
+        <f>+I71-I72</f>
         <v>4496.3679999999995</v>
       </c>
-      <c r="K72" s="7">
-        <f>+K70-K71</f>
+      <c r="K73" s="7">
+        <f>+K71-K72</f>
         <v>4459.3270000000002</v>
       </c>
-      <c r="L72" s="7">
-        <f>+L70-L71</f>
+      <c r="L73" s="7">
+        <f>+L71-L72</f>
         <v>3927.913</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="28" t="s">
+      <c r="M73" s="7">
+        <f>+M71-M72</f>
+        <v>2780.308</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I75" s="28">
         <v>199</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J75" s="28">
         <v>195.64</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K75" s="28">
         <v>130.38</v>
       </c>
-      <c r="L74" s="28">
+      <c r="L75" s="28">
         <v>110.41</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="7" t="s">
+      <c r="M75" s="28">
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="7">
-        <f>+I74*I19</f>
+      <c r="I76" s="7">
+        <f>+I75*I19</f>
         <v>65532.69</v>
       </c>
-      <c r="J75" s="7">
-        <f>+J74*J19</f>
+      <c r="J76" s="7">
+        <f>+J75*J19</f>
         <v>64170.115639999989</v>
       </c>
-      <c r="K75" s="7">
-        <f>+K74*K19</f>
+      <c r="K76" s="7">
+        <f>+K75*K19</f>
         <v>43492.681919999995</v>
       </c>
-      <c r="L75" s="7">
-        <f>+L74*L19</f>
+      <c r="L76" s="7">
+        <f>+L75*L19</f>
         <v>36884.779110000003</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="M76" s="7">
+        <f>+M75*M19</f>
+        <v>57626.885699999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="7">
-        <f>+I75-I72</f>
+      <c r="I77" s="7">
+        <f>+I76-I73</f>
         <v>61036.322</v>
       </c>
-      <c r="K76" s="7">
-        <f>+K75-K72</f>
+      <c r="K77" s="7">
+        <f>+K76-K73</f>
         <v>39033.354919999998</v>
       </c>
-      <c r="L76" s="7">
-        <f>+L75-L72</f>
+      <c r="L77" s="7">
+        <f>+L76-L73</f>
         <v>32956.866110000003</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="39" t="s">
+      <c r="M77" s="7">
+        <f>+M76-M73</f>
+        <v>54846.577700000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I78" s="39">
-        <f>+I74/I68</f>
+      <c r="I79" s="39">
+        <f>+I75/I69</f>
         <v>13.26366736176792</v>
       </c>
-      <c r="K78" s="39">
-        <f>+K74/K68</f>
+      <c r="K79" s="39">
+        <f>+K75/K69</f>
         <v>9.5218070570432491</v>
       </c>
-      <c r="L78" s="39">
-        <f>+L74/L68</f>
+      <c r="L79" s="39">
+        <f>+L75/L69</f>
         <v>8.9145606353266658</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="M79" s="39">
+        <f>+M75/M69</f>
+        <v>19.638327751857361</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B82" s="32" t="s">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B83" s="32" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="7">
-        <v>299.44</v>
-      </c>
-      <c r="H83" s="7">
-        <f>382.635-G83</f>
-        <v>83.194999999999993</v>
-      </c>
-      <c r="I83" s="7">
-        <f>503.534-SUM(G83:H83)</f>
-        <v>120.899</v>
-      </c>
-      <c r="J83" s="7">
-        <f>+X83-SUM(G83:I83)</f>
-        <v>344.58799999999997</v>
-      </c>
-      <c r="K83" s="7">
-        <v>355.46800000000002</v>
-      </c>
-      <c r="L83" s="7">
-        <f>425.333-K83</f>
-        <v>69.865000000000009</v>
-      </c>
-      <c r="V83" s="7">
-        <v>110.179</v>
-      </c>
-      <c r="W83" s="7">
-        <v>545.63900000000001</v>
-      </c>
-      <c r="X83" s="7">
-        <v>848.12199999999996</v>
       </c>
     </row>
     <row r="84" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="7">
+        <v>299.44</v>
+      </c>
+      <c r="H84" s="7">
+        <f>382.635-G84</f>
+        <v>83.194999999999993</v>
+      </c>
+      <c r="I84" s="7">
+        <f>503.534-SUM(G84:H84)</f>
+        <v>120.899</v>
+      </c>
+      <c r="J84" s="7">
+        <f>+X84-SUM(G84:I84)</f>
+        <v>344.58799999999997</v>
+      </c>
+      <c r="K84" s="7">
+        <v>355.46800000000002</v>
+      </c>
+      <c r="L84" s="7">
+        <f>425.333-K84</f>
+        <v>69.865000000000009</v>
+      </c>
+      <c r="M84" s="7">
+        <f>527.039-SUM(K84:L84)</f>
+        <v>101.70599999999996</v>
+      </c>
+      <c r="V84" s="7">
+        <v>110.179</v>
+      </c>
+      <c r="W84" s="7">
+        <v>545.63900000000001</v>
+      </c>
+      <c r="X84" s="7">
+        <v>848.12199999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <f>6.97+9.341</f>
         <v>16.311</v>
       </c>
-      <c r="H84" s="7">
-        <f>+(13.268+17.215)-G84</f>
+      <c r="H85" s="7">
+        <f>+(13.268+17.215)-G85</f>
         <v>14.172000000000001</v>
       </c>
-      <c r="I84" s="7">
-        <f>+(22.014+27.104)-SUM(G84:H84)</f>
+      <c r="I85" s="7">
+        <f>+(22.014+27.104)-SUM(G85:H85)</f>
         <v>18.634999999999994</v>
       </c>
-      <c r="J84" s="7">
-        <f>+X84-SUM(G84:I84)</f>
+      <c r="J85" s="7">
+        <f>+X85-SUM(G85:I85)</f>
         <v>20.100999999999999</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="7">
         <f>16.519+7.404</f>
         <v>23.922999999999998</v>
       </c>
-      <c r="L84" s="7">
-        <f>+(21.562+13.396)-K84</f>
+      <c r="L85" s="7">
+        <f>+(21.562+13.396)-K85</f>
         <v>11.035</v>
       </c>
-      <c r="V84" s="7">
+      <c r="M85" s="7">
+        <f>+(23.428+35.002)-SUM(K85:L85)</f>
+        <v>23.472000000000008</v>
+      </c>
+      <c r="V85" s="7">
         <f>16.221+12.772</f>
         <v>28.993000000000002</v>
       </c>
-      <c r="W84" s="7">
+      <c r="W85" s="7">
         <f>25.128+24.012</f>
         <v>49.14</v>
       </c>
-      <c r="X84" s="7">
+      <c r="X85" s="7">
         <f>35.086+34.133</f>
         <v>69.218999999999994</v>
       </c>
     </row>
-    <row r="85" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="7" t="s">
+    <row r="86" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="7">
-        <f t="shared" ref="G85:L85" si="55">+G83-G84</f>
+      <c r="G86" s="7">
+        <f t="shared" ref="G86:M86" si="55">+G84-G85</f>
         <v>283.12900000000002</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H86" s="7">
         <f t="shared" si="55"/>
         <v>69.022999999999996</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I86" s="7">
         <f t="shared" si="55"/>
         <v>102.26400000000001</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J86" s="7">
         <f t="shared" si="55"/>
         <v>324.48699999999997</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K86" s="7">
         <f t="shared" si="55"/>
         <v>331.54500000000002</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L86" s="7">
         <f t="shared" si="55"/>
         <v>58.830000000000013</v>
       </c>
-      <c r="V85" s="7">
-        <f>+V83-V84</f>
+      <c r="M86" s="7">
+        <f t="shared" si="55"/>
+        <v>78.233999999999952</v>
+      </c>
+      <c r="V86" s="7">
+        <f>+V84-V85</f>
         <v>81.186000000000007</v>
       </c>
-      <c r="W85" s="7">
-        <f>+W83-W84</f>
+      <c r="W86" s="7">
+        <f>+W84-W85</f>
         <v>496.49900000000002</v>
       </c>
-      <c r="X85" s="7">
-        <f>+X83-X84</f>
-        <v>778.90300000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J87" s="7">
-        <f>+SUM(G83:J83)</f>
-        <v>848.12199999999996</v>
-      </c>
-      <c r="K87" s="7">
-        <f>+SUM(H83:K83)</f>
-        <v>904.15000000000009</v>
-      </c>
-      <c r="L87" s="7">
-        <f>+SUM(I83:L83)</f>
-        <v>890.81999999999994</v>
-      </c>
-      <c r="V87" s="7">
-        <f>+V85</f>
-        <v>81.186000000000007</v>
-      </c>
-      <c r="W87" s="7">
-        <f>+W85</f>
-        <v>496.49900000000002</v>
-      </c>
-      <c r="X87" s="7">
-        <f>+X85</f>
+      <c r="X86" s="7">
+        <f>+X84-X85</f>
         <v>778.90300000000002</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J88" s="7">
+        <f>+SUM(G84:J84)</f>
+        <v>848.12199999999996</v>
+      </c>
+      <c r="K88" s="7">
+        <f>+SUM(H84:K84)</f>
+        <v>904.15000000000009</v>
+      </c>
+      <c r="L88" s="7">
+        <f>+SUM(I84:L84)</f>
+        <v>890.81999999999994</v>
+      </c>
+      <c r="M88" s="7">
+        <f>+SUM(J84:M84)</f>
+        <v>871.62699999999995</v>
+      </c>
+      <c r="V88" s="7">
+        <f>+V86</f>
+        <v>81.186000000000007</v>
+      </c>
+      <c r="W88" s="7">
+        <f>+W86</f>
+        <v>496.49900000000002</v>
+      </c>
+      <c r="X88" s="7">
+        <f>+X86</f>
+        <v>778.90300000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J88" s="1">
-        <f>+J87/J19</f>
+      <c r="J89" s="1">
+        <f>+J88/J19</f>
         <v>2.5857299215551173</v>
       </c>
-      <c r="K88" s="1">
-        <f>+K87/K19</f>
+      <c r="K89" s="1">
+        <f>+K88/K19</f>
         <v>2.7104117703486978</v>
       </c>
-      <c r="L88" s="1">
-        <f>+L87/L19</f>
+      <c r="L89" s="1">
+        <f>+L88/L19</f>
         <v>2.6665589051429182</v>
       </c>
-      <c r="V88" s="1">
-        <f>+V87/V19</f>
+      <c r="M89" s="1">
+        <f>+M88/M19</f>
+        <v>2.6272738507540061</v>
+      </c>
+      <c r="V89" s="1">
+        <f>+V88/V19</f>
         <v>0.27037395969667605</v>
       </c>
-      <c r="W88" s="1">
-        <f>+W87/W19</f>
+      <c r="W89" s="1">
+        <f>+W88/W19</f>
         <v>1.5577416622219433</v>
       </c>
-      <c r="X88" s="1">
-        <f>+X87/X19</f>
+      <c r="X89" s="1">
+        <f>+X88/X19</f>
         <v>2.3746970283627187</v>
       </c>
     </row>
-    <row r="90" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="39" t="s">
+    <row r="91" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="39">
-        <f>+K74/K88</f>
+      <c r="K91" s="39">
+        <f>+K75/K89</f>
         <v>48.103392047779678</v>
       </c>
-      <c r="L90" s="39">
-        <f>+L74/L88</f>
+      <c r="L91" s="39">
+        <f>+L75/L89</f>
         <v>41.405423216811485</v>
+      </c>
+      <c r="M91" s="39">
+        <f>+M75/M89</f>
+        <v>66.114158579300565</v>
       </c>
     </row>
   </sheetData>
@@ -3775,8 +4032,10 @@
     <hyperlink ref="I1" r:id="rId3" xr:uid="{A4CCC264-5056-4121-92CC-90B800BB9618}"/>
     <hyperlink ref="J1" r:id="rId4" xr:uid="{37DFB104-F4C4-4B74-88A4-5605A4601F67}"/>
     <hyperlink ref="X1" r:id="rId5" xr:uid="{EC57FC55-488B-4F8D-BD8A-5304C80B943C}"/>
+    <hyperlink ref="M1" r:id="rId6" xr:uid="{9367BFA2-BC4A-4E8C-BE25-3C46FB8AFFEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId7"/>
   <ignoredErrors>
     <ignoredError sqref="J6:J19 Y6" formula="1"/>
   </ignoredErrors>
